--- a/Testcases_supplier/Customers/Manual testcases/Customer listing testcases.xlsx
+++ b/Testcases_supplier/Customers/Manual testcases/Customer listing testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Supplier hub\Customers\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Customers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BDF406-70A8-4E69-842F-B778CC77B4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18097450-9832-4097-8880-DC44E9964CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
   <si>
     <t>SL. No</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>It goes to Companies home page</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -705,6 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,6 +1050,9 @@
       <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -1066,6 +1073,9 @@
       <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -1086,6 +1096,9 @@
       <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1106,9 +1119,14 @@
       <c r="F5" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1124,9 +1142,14 @@
       <c r="F6" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1142,9 +1165,14 @@
       <c r="F7" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1160,9 +1188,14 @@
       <c r="F8" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1178,9 +1211,14 @@
       <c r="F9" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1196,8 +1234,14 @@
       <c r="F10" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1213,8 +1257,14 @@
       <c r="F11" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1230,8 +1280,14 @@
       <c r="F12" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1247,8 +1303,14 @@
       <c r="F13" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1264,8 +1326,14 @@
       <c r="F14" s="12" t="s">
         <v>49</v>
       </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1281,8 +1349,14 @@
       <c r="F15" s="12" t="s">
         <v>50</v>
       </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1298,8 +1372,14 @@
       <c r="F16" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
@@ -1315,8 +1395,14 @@
       <c r="F17" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1332,8 +1418,14 @@
       <c r="F18" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1348,6 +1440,9 @@
       </c>
       <c r="F19" s="12" t="s">
         <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Testcases_supplier/Customers/Manual testcases/Customer listing testcases.xlsx
+++ b/Testcases_supplier/Customers/Manual testcases/Customer listing testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Customers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18097450-9832-4097-8880-DC44E9964CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426011F6-8CA1-4D21-A546-A93612036DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,6 +96,373 @@
     <t xml:space="preserve">Click on the Customers menu in the side navigation menubar </t>
   </si>
   <si>
+    <t>Displayed the Outlets and Companies</t>
+  </si>
+  <si>
+    <t>Click the Customers</t>
+  </si>
+  <si>
+    <t>Type and search the outlets</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Search box'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Check box'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Clear'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Clear' button </t>
+    </r>
+  </si>
+  <si>
+    <t>It display the Outlet list page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once select the check box ,it should have show </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Clear and Apply outlet settings from" and It will display the how many outlets selected</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed the Clear and Apply outlet settings from and selected pages</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Apply outlet settings from'</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed the Pop up screen ,                                                     1.Orders Enable/disable ordering, Notifications, Minimum order, and Delivery schedule &amp; cutoff times                                                                                                2.Market List are Market list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if you click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Apply'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If we click the Apply outlet settings it will show pop up screen are 'Copy &amp; apply outlet settings'                                                             1.In the pop up page 'Select source outlet' dropdown list             2.Once select the outlet from the list ,it will access the data from particular outlet                                                                                      3.Choose what to copy: are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Orders and Marketlist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                             4.Select all/Deselect all                                                                                 5.Apply</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed SuccessFully Copied settings and displayed Outlet page</t>
+  </si>
+  <si>
+    <t>Click the Customers-&gt;Actions</t>
+  </si>
+  <si>
+    <t>It gets displayed Manage settings and Manage Market list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It should have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Manage settings and Manage Market list"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Customers-&gt;Actions-&gt;Manage settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Customers-&gt;Actions-&gt;Manage market list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Settings and Market list"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by selected Settings tab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Settings and Market list"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by selected Market list tab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">when select the Manage settings ,it should have show </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Edit outlet page' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by default selecting Settings tab in blue color</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">when select the Manage market list ,it should have show </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Edit outlet page' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by default selecting Market list tab in blue color</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Customer arrow it will return back to Outlet page </t>
+  </si>
+  <si>
+    <t>It goes to Outlet home page</t>
+  </si>
+  <si>
+    <t>Click the Customers-&gt;Companies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Customers-&gt;Companies-&gt;Actions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I will show </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Edit details'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the Edit details ,it displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Edit company'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Customers-&gt;Companies-&gt;Back arrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Company arrow it will return back to Companies page </t>
+  </si>
+  <si>
+    <t>It goes to Companies home page</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <r>
       <t>Once click the Customers menu it should display 2 tabs they are</t>
     </r>
@@ -108,7 +475,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Outlets ,</t>
+      <t xml:space="preserve"> Locations ,</t>
     </r>
     <r>
       <rPr>
@@ -150,349 +517,36 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Default settings </t>
-    </r>
-  </si>
-  <si>
-    <t>Displayed the Outlets and Companies</t>
-  </si>
-  <si>
-    <t>By default Outlet tab is selected</t>
-  </si>
-  <si>
-    <t>It displayed the Outlet tab</t>
-  </si>
-  <si>
-    <t>Click the Customers</t>
-  </si>
-  <si>
-    <t>It gets displayed the Search Outlet, Check box, Outlet, Company, Last ordered and Actions</t>
-  </si>
-  <si>
-    <t>when we type the outlet name and select the particular outlet</t>
-  </si>
-  <si>
-    <t>Type and search the outlets</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Search box'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Check box'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In the Outlet screen it shows </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Search Outlet, Check box, Outlet, Company, Last ordered and Actions'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Clear'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'Clear' button </t>
-    </r>
-  </si>
-  <si>
-    <t>It display the Outlet list page</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once select the check box ,it should have show </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Clear and Apply outlet settings from" and It will display the how many outlets selected</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed the Clear and Apply outlet settings from and selected pages</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Apply outlet settings from'</t>
-    </r>
-  </si>
-  <si>
-    <t>It displayed the Pop up screen ,                                                     1.Orders Enable/disable ordering, Notifications, Minimum order, and Delivery schedule &amp; cutoff times                                                                                                2.Market List are Market list</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">if you click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Apply'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If we click the Apply outlet settings it will show pop up screen are 'Copy &amp; apply outlet settings'                                                             1.In the pop up page 'Select source outlet' dropdown list             2.Once select the outlet from the list ,it will access the data from particular outlet                                                                                      3.Choose what to copy: are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Orders and Marketlist</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                             4.Select all/Deselect all                                                                                 5.Apply</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed SuccessFully Copied settings and displayed Outlet page</t>
-  </si>
-  <si>
-    <t>Click the Customers-&gt;Actions</t>
-  </si>
-  <si>
-    <t>It gets displayed Manage settings and Manage Market list</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It should have </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Manage settings and Manage Market list"</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Customers-&gt;Actions-&gt;Manage settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Customers-&gt;Actions-&gt;Manage market list</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Settings and Market list"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> by selected Settings tab</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Settings and Market list"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> by selected Market list tab</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">when select the Manage settings ,it should have show </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'Edit outlet page' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>by default selecting Settings tab in blue color</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">when select the Manage market list ,it should have show </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'Edit outlet page' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>by default selecting Market list tab in blue color</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Click Customer arrow it will return back to Outlet page </t>
-  </si>
-  <si>
-    <t>It goes to Outlet home page</t>
-  </si>
-  <si>
-    <t>Click the Customers-&gt;Companies</t>
-  </si>
-  <si>
-    <t>It will display Search company, Search, list of companies, Actions and Default settings</t>
+      <t xml:space="preserve"> Default settings and New customer</t>
+    </r>
+  </si>
+  <si>
+    <t>By default Locations tab is selected</t>
+  </si>
+  <si>
+    <t>It displayed the  tab Locations</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the Locations screen it shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Search Location, Check box, Location, Company, Last ordered and Actions'</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed the Search Location, Check box, Location, Company, Last ordered and Actions</t>
+  </si>
+  <si>
+    <t>when we type the Location name and select the particular outlet</t>
   </si>
   <si>
     <r>
@@ -507,65 +561,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Search company, Search, list of companies, Actions and Default settings</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Customers-&gt;Companies-&gt;Actions</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I will show </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Edit details'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click the Edit details ,it displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Edit company'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Customers-&gt;Companies-&gt;Back arrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click Company arrow it will return back to Companies page </t>
-  </si>
-  <si>
-    <t>It goes to Companies home page</t>
-  </si>
-  <si>
-    <t>Pass</t>
+      <t>Search company, Search, list of companies, Actions, Default settings and New customer</t>
+    </r>
+  </si>
+  <si>
+    <t>It will display Search company, Search, list of companies, Actions, Default settings and New customer</t>
   </si>
 </sst>
 </file>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1051,7 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1097,10 +1097,10 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1114,13 +1114,13 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1134,16 +1134,16 @@
         <v>21</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1157,16 +1157,16 @@
         <v>21</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1180,16 +1180,16 @@
         <v>21</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1203,16 +1203,16 @@
         <v>21</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1226,16 +1226,16 @@
         <v>21</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1249,16 +1249,16 @@
         <v>21</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1272,16 +1272,16 @@
         <v>21</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1295,16 +1295,16 @@
         <v>21</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1318,16 +1318,16 @@
         <v>21</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1341,16 +1341,16 @@
         <v>21</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1364,19 +1364,19 @@
         <v>21</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="G16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1387,16 +1387,16 @@
         <v>21</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1410,16 +1410,16 @@
         <v>21</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1433,16 +1433,16 @@
         <v>21</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Testcases_supplier/Customers/Manual testcases/Customer listing testcases.xlsx
+++ b/Testcases_supplier/Customers/Manual testcases/Customer listing testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Customers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426011F6-8CA1-4D21-A546-A93612036DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AD7742-AA81-48EE-847E-EB31F1A2C348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
   <si>
     <t>SL. No</t>
   </si>
@@ -566,6 +566,114 @@
   </si>
   <si>
     <t>It will display Search company, Search, list of companies, Actions, Default settings and New customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Customers-&gt;Companies-&gt;New customer</t>
+  </si>
+  <si>
+    <t>Name &amp; UEN : Company Registration Number(UEN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the UEN and continue ,if it matches the company UEN it will proceed to Details page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details : enter the details and proceed to Save </t>
+  </si>
+  <si>
+    <t>If the UEN matches an existing buyer company (this could be an active or passive company), the customer cannot be created by the supplier and this process turns into a linking request</t>
+  </si>
+  <si>
+    <t>It gets displayed The UEN entered already registered on zeemart as company name</t>
+  </si>
+  <si>
+    <r>
+      <t>It gets displayed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Request submitted"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once required the fields and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Click Submit </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User created successfully</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Name &amp; UEN and Details'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Once click the New customer ,It will shows</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Add customer'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -989,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,6 +1553,121 @@
         <v>56</v>
       </c>
     </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Testcases_supplier/Customers/Manual testcases/Customer listing testcases.xlsx
+++ b/Testcases_supplier/Customers/Manual testcases/Customer listing testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Customers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AD7742-AA81-48EE-847E-EB31F1A2C348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7406DF7E-A9E7-4476-B131-979F592BC2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
   <si>
     <t>SL. No</t>
   </si>
@@ -566,114 +566,6 @@
   </si>
   <si>
     <t>It will display Search company, Search, list of companies, Actions, Default settings and New customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Customers-&gt;Companies-&gt;New customer</t>
-  </si>
-  <si>
-    <t>Name &amp; UEN : Company Registration Number(UEN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the UEN and continue ,if it matches the company UEN it will proceed to Details page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details : enter the details and proceed to Save </t>
-  </si>
-  <si>
-    <t>If the UEN matches an existing buyer company (this could be an active or passive company), the customer cannot be created by the supplier and this process turns into a linking request</t>
-  </si>
-  <si>
-    <t>It gets displayed The UEN entered already registered on zeemart as company name</t>
-  </si>
-  <si>
-    <r>
-      <t>It gets displayed</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Request submitted"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once required the fields and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Click Submit </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User created successfully</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Name &amp; UEN and Details'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Once click the New customer ,It will shows</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'Add customer'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page </t>
-    </r>
   </si>
 </sst>
 </file>
@@ -1099,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="107" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,121 +1445,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" t="s">
-        <v>56</v>
-      </c>
-    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Testcases_supplier/Customers/Manual testcases/Customer listing testcases.xlsx
+++ b/Testcases_supplier/Customers/Manual testcases/Customer listing testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Zeemart All\Git hub\zm-buyerautomation\Testcases_supplier\Customers\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Customers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8114D15E-2545-4A84-BD72-AEF0DFB7DA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19785A2-2688-4ED7-9471-EF787AE67ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="83">
   <si>
     <t>SL. No</t>
   </si>
@@ -673,6 +673,177 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> page </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.It should display pop up page and It shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Select source outlet dropdown' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and after selecting the outlet the options are enable</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t>It displayed optiona are                                                                                            1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Orders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :-Enable/disable ordering, Notifications, Minimum order, Delivery schedule &amp; cutoff times                                                                                         2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Market list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dropdown                                                                                    3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.Buyers Custom Settings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :- Custom names, Custom product codes and Tags                                                                                                       4.On top Select all, Settings will be applied to 1 outlets selected (red color) and Apply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Click on the View outlets-&gt;Check box-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply outlet settings from(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It gets display </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Updated success </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Check box-&gt;Apply outlet settins from'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Apply </t>
     </r>
   </si>
 </sst>
@@ -782,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -817,6 +988,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1097,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1290,7 @@
     <col min="3" max="3" width="32.28515625" customWidth="1"/>
     <col min="4" max="4" width="48.85546875" customWidth="1"/>
     <col min="5" max="5" width="56.28515625" customWidth="1"/>
-    <col min="6" max="6" width="83.140625" customWidth="1"/>
+    <col min="6" max="6" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1323,7 +1503,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1334,65 +1514,69 @@
         <v>21</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="G12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -1403,19 +1587,19 @@
         <v>21</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1426,19 +1610,19 @@
         <v>21</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1449,19 +1633,19 @@
         <v>21</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -1472,19 +1656,19 @@
         <v>21</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1495,19 +1679,19 @@
         <v>21</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -1518,19 +1702,19 @@
         <v>21</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -1541,67 +1725,67 @@
         <v>21</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" t="s">
-        <v>67</v>
-      </c>
       <c r="G21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1612,19 +1796,19 @@
       <c r="D22" t="s">
         <v>65</v>
       </c>
-      <c r="E22" t="s">
-        <v>68</v>
+      <c r="E22" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1635,19 +1819,19 @@
       <c r="D23" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>69</v>
+      <c r="E23" t="s">
+        <v>66</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -1659,12 +1843,58 @@
         <v>65</v>
       </c>
       <c r="E24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
         <v>72</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F26" t="s">
         <v>71</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G26" t="s">
         <v>56</v>
       </c>
     </row>

--- a/Testcases_supplier/Customers/Manual testcases/Customer listing testcases.xlsx
+++ b/Testcases_supplier/Customers/Manual testcases/Customer listing testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Customers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19785A2-2688-4ED7-9471-EF787AE67ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0BDDEE-C36F-40BE-AB9C-09F7683EC4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -706,7 +706,81 @@
   </si>
   <si>
     <r>
-      <t>It displayed optiona are                                                                                            1.</t>
+      <t>Click on the View outlets-&gt;Check box-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply outlet settings from(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It gets display </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Updated success </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Check box-&gt;Apply outlet settins from'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Apply </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It displayed options are                                                                                            1.</t>
     </r>
     <r>
       <rPr>
@@ -759,91 +833,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.Buyers Custom Settings</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :- Custom names, Custom product codes and Tags                                                                                                       4.On top Select all, Settings will be applied to 1 outlets selected (red color) and Apply</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Click on the View outlets-&gt;Check box-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Apply outlet settings from(new)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It gets display </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Updated success </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Check box-&gt;Apply outlet settins from'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(new)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Apply </t>
+      <t xml:space="preserve">.Invoices : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Invoice payment terms, Salesperson, Invoice notes              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                   4.On top Select all, Settings will be applied to 1 outlets selected (red color) and Apply</t>
     </r>
   </si>
 </sst>
@@ -1279,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,13 +1535,13 @@
         <v>21</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>76</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>56</v>
@@ -1540,13 +1561,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>80</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>56</v>

--- a/Testcases_supplier/Customers/Manual testcases/Customer listing testcases.xlsx
+++ b/Testcases_supplier/Customers/Manual testcases/Customer listing testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Customers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0BDDEE-C36F-40BE-AB9C-09F7683EC4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB934C0-2224-44C1-BBCB-268FBA3B2F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,7 +974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -999,20 +999,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1300,7 +1287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1445,7 +1432,7 @@
       <c r="D6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1468,7 +1455,7 @@
       <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1540,13 +1527,13 @@
       <c r="E10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="G10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1566,13 +1553,13 @@
       <c r="E11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="15"/>
+      <c r="G11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -1598,7 +1585,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1610,10 +1597,10 @@
       <c r="D13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G13" t="s">
@@ -1621,7 +1608,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1633,10 +1620,10 @@
       <c r="D14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G14" t="s">
@@ -1644,7 +1631,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1656,10 +1643,10 @@
       <c r="D15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G15" t="s">
@@ -1667,7 +1654,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1679,10 +1666,10 @@
       <c r="D16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G16" t="s">
@@ -1690,7 +1677,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1702,10 +1689,10 @@
       <c r="D17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
@@ -1713,7 +1700,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1725,10 +1712,10 @@
       <c r="D18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G18" t="s">
@@ -1736,7 +1723,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1748,10 +1735,10 @@
       <c r="D19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G19" t="s">
@@ -1759,7 +1746,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1771,10 +1758,10 @@
       <c r="D20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="6" t="s">
         <v>52</v>
       </c>
       <c r="G20" t="s">
@@ -1782,7 +1769,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1794,10 +1781,10 @@
       <c r="D21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G21" t="s">

--- a/Testcases_supplier/Customers/Manual testcases/Customer listing testcases.xlsx
+++ b/Testcases_supplier/Customers/Manual testcases/Customer listing testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Customers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB934C0-2224-44C1-BBCB-268FBA3B2F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574D4B69-5B27-4799-B337-908F84FC488A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,6 +294,238 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">when select the Manage settings ,it should have show </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Edit outlet page' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by default selecting Settings tab in blue color</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">when select the Manage market list ,it should have show </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Edit outlet page' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by default selecting Market list tab in blue color</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Customer arrow it will return back to Outlet page </t>
+  </si>
+  <si>
+    <t>Click the Customers-&gt;Companies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Customers-&gt;Companies-&gt;Actions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I will show </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Edit details'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Customers-&gt;Companies-&gt;Back arrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Company arrow it will return back to Companies page </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <r>
+      <t>Once click the Customers menu it should display 2 tabs they are</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Locations ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Companies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and right top corner</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Default settings and New customer</t>
+    </r>
+  </si>
+  <si>
+    <t>By default Locations tab is selected</t>
+  </si>
+  <si>
+    <t>It displayed the  tab Locations</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the Locations screen it shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Search Location, Check box, Location, Company, Last ordered and Actions'</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed the Search Location, Check box, Location, Company, Last ordered and Actions</t>
+  </si>
+  <si>
+    <t>when we type the Location name and select the particular outlet</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It will show </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search company, Search, list of companies, Actions, Default settings and New customer</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Customers-&gt;Companies-&gt;New customer</t>
+  </si>
+  <si>
+    <t>Name &amp; UEN : Company Registration Number(UEN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details : enter the details and proceed to Save </t>
+  </si>
+  <si>
+    <t>If the UEN matches an existing buyer company (this could be an active or passive company), the customer cannot be created by the supplier and this process turns into a linking request</t>
+  </si>
+  <si>
+    <r>
+      <t>It gets displayed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Request submitted"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once required the fields and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Click Submit </t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">It displayed the </t>
     </r>
     <r>
@@ -305,6 +537,307 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>'Name &amp; UEN and Details'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Once click the New customer ,It will shows</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Add customer'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.It should display pop up page and It shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Select source outlet dropdown' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and after selecting the outlet the options are enable</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t>Click on the View outlets-&gt;Check box-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply outlet settings from(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It gets display </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Updated success </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Check box-&gt;Apply outlet settins from'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Apply </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It displayed options are                                                                                            1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Orders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :-Enable/disable ordering, Notifications, Minimum order, Delivery schedule &amp; cutoff times                                                                                         2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Market list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dropdown                                                                                    3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Invoices : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Invoice payment terms, Salesperson, Invoice notes              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                   4.On top Select all, Settings will be applied to 1 outlets selected (red color) and Apply</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed The UEN entered already registered on zeemart as company name.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User created successfully</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter the UEN and continue ,if it matches the company UEN it will proceed to Details page .</t>
+  </si>
+  <si>
+    <t>It goes to Companies home page.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the Edit details ,it displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Edit company'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page.</t>
+    </r>
+  </si>
+  <si>
+    <t>It will display Search company, Search, list of companies, Actions, Default settings and New customer.</t>
+  </si>
+  <si>
+    <t>It goes to Outlet home page.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>"Settings and Market list"</t>
     </r>
     <r>
@@ -315,7 +848,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> by selected Settings tab</t>
+      <t xml:space="preserve"> by selected Market list tab.</t>
     </r>
   </si>
   <si>
@@ -341,530 +874,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> by selected Market list tab</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">when select the Manage settings ,it should have show </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'Edit outlet page' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>by default selecting Settings tab in blue color</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">when select the Manage market list ,it should have show </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'Edit outlet page' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>by default selecting Market list tab in blue color</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Click Customer arrow it will return back to Outlet page </t>
-  </si>
-  <si>
-    <t>It goes to Outlet home page</t>
-  </si>
-  <si>
-    <t>Click the Customers-&gt;Companies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Customers-&gt;Companies-&gt;Actions</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I will show </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Edit details'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click the Edit details ,it displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Edit company'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Customers-&gt;Companies-&gt;Back arrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click Company arrow it will return back to Companies page </t>
-  </si>
-  <si>
-    <t>It goes to Companies home page</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <r>
-      <t>Once click the Customers menu it should display 2 tabs they are</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Locations ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Companies</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and right top corner</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Default settings and New customer</t>
-    </r>
-  </si>
-  <si>
-    <t>By default Locations tab is selected</t>
-  </si>
-  <si>
-    <t>It displayed the  tab Locations</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In the Locations screen it shows </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Search Location, Check box, Location, Company, Last ordered and Actions'</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed the Search Location, Check box, Location, Company, Last ordered and Actions</t>
-  </si>
-  <si>
-    <t>when we type the Location name and select the particular outlet</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It will show </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Search company, Search, list of companies, Actions, Default settings and New customer</t>
-    </r>
-  </si>
-  <si>
-    <t>It will display Search company, Search, list of companies, Actions, Default settings and New customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Customers-&gt;Companies-&gt;New customer</t>
-  </si>
-  <si>
-    <t>Name &amp; UEN : Company Registration Number(UEN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the UEN and continue ,if it matches the company UEN it will proceed to Details page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details : enter the details and proceed to Save </t>
-  </si>
-  <si>
-    <t>If the UEN matches an existing buyer company (this could be an active or passive company), the customer cannot be created by the supplier and this process turns into a linking request</t>
-  </si>
-  <si>
-    <t>It gets displayed The UEN entered already registered on zeemart as company name</t>
-  </si>
-  <si>
-    <r>
-      <t>It gets displayed</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Request submitted"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once required the fields and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Click Submit </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User created successfully</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Name &amp; UEN and Details'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Once click the New customer ,It will shows</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'Add customer'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.It should display pop up page and It shows </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'Select source outlet dropdown' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and after selecting the outlet the options are enable</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <r>
-      <t>Click on the View outlets-&gt;Check box-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Apply outlet settings from(new)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It gets display </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Updated success </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Check box-&gt;Apply outlet settins from'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(new)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Apply </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>It displayed options are                                                                                            1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Orders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :-Enable/disable ordering, Notifications, Minimum order, Delivery schedule &amp; cutoff times                                                                                         2.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Market list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dropdown                                                                                    3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Invoices : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Invoice payment terms, Salesperson, Invoice notes              </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                   4.On top Select all, Settings will be applied to 1 outlets selected (red color) and Apply</t>
+      <t xml:space="preserve"> by selected Settings tab.</t>
     </r>
   </si>
 </sst>
@@ -1287,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,7 +1357,7 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1370,7 +1380,7 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1393,7 +1403,7 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1410,13 +1420,13 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1433,13 +1443,13 @@
         <v>24</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1456,13 +1466,13 @@
         <v>24</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1479,13 +1489,13 @@
         <v>26</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1508,7 +1518,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1522,19 +1532,19 @@
         <v>21</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1548,16 +1558,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H11" s="9"/>
     </row>
@@ -1581,7 +1591,7 @@
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1604,7 +1614,7 @@
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1627,7 +1637,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1650,7 +1660,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1667,13 +1677,13 @@
         <v>41</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1690,13 +1700,13 @@
         <v>42</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1713,13 +1723,13 @@
         <v>42</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1733,16 +1743,16 @@
         <v>21</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1756,16 +1766,16 @@
         <v>21</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1779,16 +1789,16 @@
         <v>21</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1802,16 +1812,16 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" t="s">
-        <v>74</v>
-      </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1825,16 +1835,16 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1848,16 +1858,16 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1871,16 +1881,16 @@
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1894,16 +1904,16 @@
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
